--- a/SKAZ_DB_maps.xlsx
+++ b/SKAZ_DB_maps.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06f113a1f573cf4f/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2DBD9C7-54D3-4365-B7D2-348F68A7298D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C39DEAB-1011-47B6-9448-C48781414CFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{A18279E6-D1D1-42AF-9792-7BCFB476BF08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{A18279E6-D1D1-42AF-9792-7BCFB476BF08}"/>
   </bookViews>
   <sheets>
     <sheet name="master_stories" sheetId="1" r:id="rId1"/>
     <sheet name="users" sheetId="6" r:id="rId2"/>
-    <sheet name="user_downloads" sheetId="7" r:id="rId3"/>
-    <sheet name="decision_node" sheetId="2" r:id="rId4"/>
-    <sheet name="location_node" sheetId="3" r:id="rId5"/>
-    <sheet name="objects" sheetId="4" r:id="rId6"/>
-    <sheet name="events" sheetId="5" r:id="rId7"/>
+    <sheet name="corporate_accts" sheetId="8" r:id="rId3"/>
+    <sheet name="user_downloads" sheetId="7" r:id="rId4"/>
+    <sheet name="decision_node" sheetId="2" r:id="rId5"/>
+    <sheet name="location_node" sheetId="3" r:id="rId6"/>
+    <sheet name="objects" sheetId="4" r:id="rId7"/>
+    <sheet name="events" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="170">
   <si>
     <t>master_stories</t>
   </si>
@@ -60,7 +61,7 @@
     <t>Stores the ID of stories</t>
   </si>
   <si>
-    <t>name</t>
+    <t>story_title</t>
   </si>
   <si>
     <t>String</t>
@@ -69,19 +70,19 @@
     <t>Stores the name of stories</t>
   </si>
   <si>
-    <t>author</t>
+    <t>story_author</t>
   </si>
   <si>
     <t>Name of author</t>
   </si>
   <si>
-    <t>synopsis</t>
+    <t>story_synopsis</t>
   </si>
   <si>
     <t>Stores the synopsis of the story</t>
   </si>
   <si>
-    <t>price</t>
+    <t>story_price</t>
   </si>
   <si>
     <t>Double</t>
@@ -99,7 +100,7 @@
     <t>Determines whether the author will get paid or not</t>
   </si>
   <si>
-    <t>Genre</t>
+    <t>genre</t>
   </si>
   <si>
     <t>Genre of story</t>
@@ -123,13 +124,13 @@
     <t>Number of the decisions nodes in the story</t>
   </si>
   <si>
-    <t>verified</t>
+    <t>story_verified</t>
   </si>
   <si>
     <t>Whether or not the story is verified for "primetime"</t>
   </si>
   <si>
-    <t>date_of_verification</t>
+    <t>story_verification_date</t>
   </si>
   <si>
     <t>Date</t>
@@ -144,7 +145,7 @@
     <t>Who verified the story</t>
   </si>
   <si>
-    <t>status</t>
+    <t>verification_status</t>
   </si>
   <si>
     <t>Status of the the story ("not verified, "submitted", "verified")</t>
@@ -156,36 +157,51 @@
     <t>Average rating</t>
   </si>
   <si>
+    <t>story_language</t>
+  </si>
+  <si>
+    <t>Language of the story</t>
+  </si>
+  <si>
+    <t>storage_size</t>
+  </si>
+  <si>
+    <t>Storage size of the story</t>
+  </si>
+  <si>
+    <t>obj_verification_status</t>
+  </si>
+  <si>
+    <t>event_verification_status</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>String (must be encrypted)</t>
+  </si>
+  <si>
+    <t>password_salt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String </t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
     <t>language</t>
   </si>
   <si>
-    <t>Language of the story</t>
-  </si>
-  <si>
-    <t>storage_size</t>
-  </si>
-  <si>
-    <t>Storage size of the story</t>
-  </si>
-  <si>
-    <t>users</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>String (must be encrypted)</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
     <t>country_of_origin</t>
   </si>
   <si>
@@ -198,6 +214,36 @@
     <t>email_address</t>
   </si>
   <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>company_user</t>
+  </si>
+  <si>
+    <t>is_contributor</t>
+  </si>
+  <si>
+    <t>is_consumer</t>
+  </si>
+  <si>
+    <t>company_id</t>
+  </si>
+  <si>
+    <t>is_company_user</t>
+  </si>
+  <si>
+    <t>corporate_accts</t>
+  </si>
+  <si>
+    <t>company_name</t>
+  </si>
+  <si>
+    <t>company_discount</t>
+  </si>
+  <si>
+    <t>has_free_downloads</t>
+  </si>
+  <si>
     <t>users_downloads</t>
   </si>
   <si>
@@ -216,10 +262,10 @@
     <t>Stores the price of the stories sold at</t>
   </si>
   <si>
-    <t>successful_purchase</t>
-  </si>
-  <si>
-    <t>Determines whether or not the purchase was successful</t>
+    <t>is_download_successful</t>
+  </si>
+  <si>
+    <t>Determines whether or not the download was successful</t>
   </si>
   <si>
     <t>date_of_purchase</t>
@@ -228,12 +274,24 @@
     <t>Stores the date of purchase of stories</t>
   </si>
   <si>
-    <t>paid</t>
+    <t>date_of_download</t>
+  </si>
+  <si>
+    <t>Stores the dat of download</t>
+  </si>
+  <si>
+    <t>demo_or_paid</t>
   </si>
   <si>
     <t>Stores whether the stories were paid or not</t>
   </si>
   <si>
+    <t>download_expired_date</t>
+  </si>
+  <si>
+    <t>exipration date for companies utilizing discount</t>
+  </si>
+  <si>
     <t>decision</t>
   </si>
   <si>
@@ -246,13 +304,31 @@
     <t>Decisions</t>
   </si>
   <si>
-    <t>id</t>
+    <t>Id of the story contains the decisions</t>
+  </si>
+  <si>
+    <t>loc_id</t>
+  </si>
+  <si>
+    <t>Id of the location that contains the decisions</t>
+  </si>
+  <si>
+    <t>sequence_num</t>
+  </si>
+  <si>
+    <t>Sequence of decisions being read from list</t>
+  </si>
+  <si>
+    <t>decision_id</t>
   </si>
   <si>
     <t>This field stores the ID of 
 each decision object</t>
   </si>
   <si>
+    <t>decision_name</t>
+  </si>
+  <si>
     <t>Name of the decision object</t>
   </si>
   <si>
@@ -262,6 +338,12 @@
     <t>Allows the author to determine whether the decision should transition from one node to another</t>
   </si>
   <si>
+    <t>transition_loc_id</t>
+  </si>
+  <si>
+    <t>stores the ID of the next location</t>
+  </si>
+  <si>
     <t>hidden</t>
   </si>
   <si>
@@ -274,13 +356,7 @@
     <t>Determines whether the next node is locked</t>
   </si>
   <si>
-    <t>show_unlock_object</t>
-  </si>
-  <si>
-    <t>Holds the ID of the object that can reveal the hidden object</t>
-  </si>
-  <si>
-    <t>desc_descr</t>
+    <t>decision_description</t>
   </si>
   <si>
     <t>Allows the author to 
@@ -289,7 +365,7 @@
 decision</t>
   </si>
   <si>
-    <t>show_event</t>
+    <t>show_event_ID</t>
   </si>
   <si>
     <t>int</t>
@@ -298,13 +374,16 @@
     <t>Stores the ID of event that shows the hidden features</t>
   </si>
   <si>
-    <t>show_object</t>
+    <t>show_object_ID</t>
   </si>
   <si>
     <t>Stores the ID of objects that show hidden features</t>
   </si>
   <si>
-    <t>unlock_object</t>
+    <t>locked_event_ID</t>
+  </si>
+  <si>
+    <t>unlock_object_ID</t>
   </si>
   <si>
     <t>Stores the ID of objects that show unlocked features</t>
@@ -316,49 +395,58 @@
     <t>Stores description incase something is locked</t>
   </si>
   <si>
-    <t>afrermath_descr</t>
+    <t>aftermath_descr</t>
   </si>
   <si>
     <t>Stores the description of the aftermath of the events</t>
   </si>
   <si>
-    <t>effect_event</t>
+    <t>effect_event_ID</t>
   </si>
   <si>
     <t>Stores the ID of the event that is affected by the decision</t>
   </si>
   <si>
+    <t>cause_event</t>
+  </si>
+  <si>
     <t>location_nodes</t>
   </si>
   <si>
+    <t>Stores the ID of the stories the locations are in</t>
+  </si>
+  <si>
     <t>location_ID</t>
   </si>
   <si>
     <t>Stores the ID of the locations</t>
   </si>
   <si>
+    <t>location_name</t>
+  </si>
+  <si>
     <t>Stores the name of the location</t>
   </si>
   <si>
-    <t>orig_descr</t>
+    <t>original_description</t>
   </si>
   <si>
     <t>Stores the original description of the location</t>
   </si>
   <si>
-    <t>short_descr</t>
+    <t>short_description</t>
   </si>
   <si>
     <t>Stores the short description of the location</t>
   </si>
   <si>
-    <t>post_even_descr</t>
+    <t>post_event_description</t>
   </si>
   <si>
     <t>Description of the location after an event occurred</t>
   </si>
   <si>
-    <t>post_even_desc_id</t>
+    <t>post_event_description_id</t>
   </si>
   <si>
     <t>Stores the ID of events after an event occurred</t>
@@ -376,67 +464,91 @@
     <t>Stores the location of the next event</t>
   </si>
   <si>
+    <t>location_verified</t>
+  </si>
+  <si>
+    <t>location_verif_status</t>
+  </si>
+  <si>
+    <t>location_timestamp</t>
+  </si>
+  <si>
     <t>objects</t>
   </si>
   <si>
-    <t>object_id</t>
+    <t>Stores  the ID of the story that contains the object</t>
+  </si>
+  <si>
+    <t>obj_id</t>
   </si>
   <si>
     <t>Stores the id of objects</t>
   </si>
   <si>
+    <t>obj_name</t>
+  </si>
+  <si>
     <t>Stores the name of objects</t>
   </si>
   <si>
+    <t>obj_description</t>
+  </si>
+  <si>
+    <t>Description of object</t>
+  </si>
+  <si>
+    <t>can_pickup_obj</t>
+  </si>
+  <si>
+    <t>Determines whether the object can be picked up or not</t>
+  </si>
+  <si>
+    <t>obj_starting_loc</t>
+  </si>
+  <si>
+    <t>Stores the id of starting location of objects</t>
+  </si>
+  <si>
+    <t>is_hidden</t>
+  </si>
+  <si>
+    <t>Determines whether the object is hidden or not</t>
+  </si>
+  <si>
+    <t>unhide_event_id</t>
+  </si>
+  <si>
+    <t>Stores the ID of the required event to unlock the object</t>
+  </si>
+  <si>
+    <t>events</t>
+  </si>
+  <si>
+    <t>event_id</t>
+  </si>
+  <si>
+    <t>Stores the id of the events</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Stores the name of the events</t>
+  </si>
+  <si>
     <t>descr</t>
   </si>
   <si>
-    <t>Description of object</t>
-  </si>
-  <si>
-    <t>pickup</t>
-  </si>
-  <si>
-    <t>Determines whether the object can be picked up or not</t>
-  </si>
-  <si>
-    <t>starting_loc</t>
-  </si>
-  <si>
-    <t>Stores the id of starting location of objects</t>
-  </si>
-  <si>
-    <t>Determines whether the object is hidden or not</t>
-  </si>
-  <si>
-    <t>required_event</t>
-  </si>
-  <si>
-    <t>Stores the ID of the required event to unlock the object</t>
-  </si>
-  <si>
-    <t>events</t>
-  </si>
-  <si>
-    <t>event_id</t>
-  </si>
-  <si>
-    <t>Stores the id of the events</t>
-  </si>
-  <si>
-    <t>Stores the name of the events</t>
-  </si>
-  <si>
     <t>Description of event</t>
   </si>
   <si>
-    <t>event_location</t>
+    <t>event_location_id</t>
   </si>
   <si>
     <t>Stores the ID of the locations for events</t>
   </si>
   <si>
-    <t>global</t>
+    <t>is_global</t>
   </si>
   <si>
     <t>Determines whether the event will be global</t>
@@ -446,7 +558,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,8 +608,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,6 +631,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -529,7 +654,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -564,6 +689,19 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -887,10 +1025,430 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8D3279-6F08-4C99-88A6-720866431B12}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{38FE1939-F9A0-5068-BB74-AA287F5FDC85}">
-      <selection activeCell="C20" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A12" workbookViewId="0" xr3:uid="{38FE1939-F9A0-5068-BB74-AA287F5FDC85}">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="37.5">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="37.5">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="93.75">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="37.5">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="93.75">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="56.25">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="75">
+      <c r="A12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="75">
+      <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="56.25">
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="37.5">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="37.5">
+      <c r="A16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="37.5">
+      <c r="A17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="52.5" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="37.5">
+      <c r="A19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="37.5">
+      <c r="A20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="37.5">
+      <c r="A21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB1ABD2-7E29-4031-87F9-5C48D3FF4383}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" xr3:uid="{5F4B0B92-08F3-5766-87D9-3BDB55A984ED}">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="1:3" ht="18.75">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75">
+      <c r="A3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75">
+      <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75">
+      <c r="A5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75">
+      <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75">
+      <c r="A7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18.75">
+      <c r="A8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75">
+      <c r="A9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75">
+      <c r="A10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75">
+      <c r="A11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.75">
+      <c r="A12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18.75">
+      <c r="A13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.75">
+      <c r="A14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18.75">
+      <c r="A15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75">
+      <c r="A16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18.75">
+      <c r="A17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18.75">
+      <c r="A18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18.75"/>
+    <row r="20" spans="1:2" ht="18.75"/>
+    <row r="21" spans="1:2" ht="18.75"/>
+    <row r="22" spans="1:2" ht="18.75"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3786704D-1555-444A-A1DC-C37E738B3EA8}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" xr3:uid="{E16427D5-8597-5767-BE35-69CBCEF2C9E3}">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -902,11 +1460,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
@@ -919,430 +1477,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="37.5">
+    <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="56.25">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="37.5">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="56.25">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="37.5">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="93.75">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="37.5">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="93.75">
-      <c r="A10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="56.25">
-      <c r="A11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="75">
-      <c r="A12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="75">
-      <c r="A13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="56.25">
-      <c r="A14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="37.5">
-      <c r="A15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="112.5">
-      <c r="A16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="37.5">
-      <c r="A17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="37.5">
-      <c r="A18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="37.5">
-      <c r="A19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB1ABD2-7E29-4031-87F9-5C48D3FF4383}">
-  <dimension ref="A1:C19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{5F4B0B92-08F3-5766-87D9-3BDB55A984ED}">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="25.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="2" spans="1:3" ht="18.75">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75">
-      <c r="A3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75">
-      <c r="A4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75">
-      <c r="A5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75">
-      <c r="A6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75">
-      <c r="A7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75">
-      <c r="A8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75">
-      <c r="A9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75">
-      <c r="A10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75">
-      <c r="A11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.75"/>
-    <row r="13" spans="1:3" ht="18.75"/>
-    <row r="14" spans="1:3" ht="18.75"/>
-    <row r="15" spans="1:3" ht="18.75"/>
-    <row r="16" spans="1:3" ht="18.75"/>
-    <row r="17" ht="18.75"/>
-    <row r="18" ht="18.75"/>
-    <row r="19" ht="18.75"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE43ABCD-2023-406B-AD62-EA271E578CE4}">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{992F49DC-FC25-5010-BEEC-0287AFF460A5}"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="28.140625" defaultRowHeight="51" customHeight="1"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A1" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="2" spans="1:3" ht="51" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="51" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="51" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="51" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="51" customHeight="1">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="51" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="51" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="51" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" ht="51" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="51" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1353,178 +1518,130 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BDC336E-0409-48E5-8400-9A2721F50EFA}">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE43ABCD-2023-406B-AD62-EA271E578CE4}">
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{D6B66F13-0089-5609-89EB-CE3D6AEBE18F}">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" xr3:uid="{992F49DC-FC25-5010-BEEC-0287AFF460A5}">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="26" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="28.140625" defaultRowHeight="51" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="2" spans="1:3" ht="18.75">
+    <row r="1" spans="1:3" ht="39.75" customHeight="1">
+      <c r="A1" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="1:3" ht="51" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30">
-      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="51" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="51" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="30">
-      <c r="A4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="60">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:3" ht="51" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="51" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30">
-      <c r="A6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:3" ht="51" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:3" ht="51" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="60">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:3" ht="51" customHeight="1">
+      <c r="A9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:3" ht="51" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30.75">
-      <c r="A11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30">
-      <c r="A12" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30">
-      <c r="A13" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30">
-      <c r="A14" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="45">
-      <c r="A15" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>94</v>
-      </c>
+    </row>
+    <row r="11" spans="1:3" ht="51" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="51" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1535,122 +1652,227 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC595B4E-9EE4-490D-914F-F81CBCDFF0F6}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BDC336E-0409-48E5-8400-9A2721F50EFA}">
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{A92530AF-2164-5696-B0D5-C221BF10106C}">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0" xr3:uid="{D6B66F13-0089-5609-89EB-CE3D6AEBE18F}">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.7109375" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="24.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="39.7109375" style="4"/>
+    <col min="3" max="3" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="1:3" ht="18.75">
+      <c r="A2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="14" customFormat="1" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="16" customFormat="1" ht="18.75">
+      <c r="A4" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="16" customFormat="1" ht="18.75">
+      <c r="A5" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30">
+      <c r="A6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30">
+      <c r="A7" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="37.5">
-      <c r="A3" s="11" t="s">
+      <c r="B7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="60">
+      <c r="A8" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="37.5">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="75">
-      <c r="A5" s="4" t="s">
+    <row r="9" spans="1:3" ht="18.75">
+      <c r="A9" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="56.25">
-      <c r="A6" s="4" t="s">
+    <row r="10" spans="1:3" ht="30">
+      <c r="A10" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="75">
-      <c r="A7" s="4" t="s">
+    <row r="11" spans="1:3" ht="30">
+      <c r="A11" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="56.25">
-      <c r="A8" s="4" t="s">
+    <row r="12" spans="1:3" ht="60">
+      <c r="A12" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="131.25">
-      <c r="A9" s="4" t="s">
+    <row r="13" spans="1:3" ht="30">
+      <c r="A13" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30.75">
+      <c r="A14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18.75">
+      <c r="A15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" ht="30">
+      <c r="A16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30">
+      <c r="A17" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30">
+      <c r="A18" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30">
+      <c r="A19" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18.75">
+      <c r="A20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="56.25">
-      <c r="A10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1662,26 +1884,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F89DE2-96CB-4056-85E8-2C1AE44181D1}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC595B4E-9EE4-490D-914F-F81CBCDFF0F6}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{E8ED3235-3947-540C-8706-5FEA0D22C2F4}">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A6" workbookViewId="0" xr3:uid="{A92530AF-2164-5696-B0D5-C221BF10106C}">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="39.7109375" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="21.140625" style="2"/>
+    <col min="1" max="16384" width="39.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="2" spans="1:3" ht="18.75">
+    <row r="1" spans="1:3">
+      <c r="A1" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -1692,81 +1914,127 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="37.5">
-      <c r="A3" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="37.5">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
+    <row r="3" spans="1:3" ht="30">
+      <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="37.5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="75">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="37.5">
       <c r="A6" s="4" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="37.5">
+      <c r="A7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="37.5">
+      <c r="A8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="64.5" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="131.25">
+      <c r="A10" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="56.25">
-      <c r="A7" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="75">
-      <c r="A8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="C10" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="56.25">
+      <c r="A11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="45">
-      <c r="A9" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>123</v>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1778,21 +2046,148 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F89DE2-96CB-4056-85E8-2C1AE44181D1}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" xr3:uid="{E8ED3235-3947-540C-8706-5FEA0D22C2F4}">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="21.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" ht="18.75">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45">
+      <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="37.5">
+      <c r="A4" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="37.5">
+      <c r="A5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="37.5">
+      <c r="A6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="75">
+      <c r="A7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="56.25">
+      <c r="A8" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="75">
+      <c r="A9" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45">
+      <c r="A10" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2172B2B3-56C5-478D-BE3C-928F353B7688}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0" xr3:uid="{09B16920-3A29-5665-B1F4-2B505DEB5CBA}">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="18.75">
       <c r="A2" s="6" t="s">
@@ -1805,65 +2200,73 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="37.5">
-      <c r="A3" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>126</v>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="37.5">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
+      <c r="A4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="37.5">
       <c r="A5" s="3" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="56.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="37.5">
       <c r="A6" s="3" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="75">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="56.25">
       <c r="A7" s="3" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="75">
+      <c r="A8" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SKAZ_DB_maps.xlsx
+++ b/SKAZ_DB_maps.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06f113a1f573cf4f/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06f113a1f573cf4f/Documents/GitHub/AA1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="577" documentId="8_{04B64F91-40C6-411C-8FC6-A81B4327CA50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{EBA82360-8DA0-4702-AED1-E230037F7D43}"/>
+  <xr:revisionPtr revIDLastSave="581" documentId="8_{04B64F91-40C6-411C-8FC6-A81B4327CA50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{7E52665C-63C9-4DF1-AD98-F676A0BE1297}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A18279E6-D1D1-42AF-9792-7BCFB476BF08}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A18279E6-D1D1-42AF-9792-7BCFB476BF08}"/>
   </bookViews>
   <sheets>
     <sheet name="master_stories" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="182">
   <si>
     <t>String</t>
   </si>
@@ -444,9 +444,6 @@
   </si>
   <si>
     <t>password_salt</t>
-  </si>
-  <si>
-    <t>company_user</t>
   </si>
   <si>
     <t>is_consumer</t>
@@ -686,12 +683,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -700,7 +712,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -749,14 +761,26 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1090,15 +1114,15 @@
   <sheetData>
     <row r="1" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -1278,7 +1302,7 @@
     </row>
     <row r="19" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>4</v>
@@ -1327,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB1ABD2-7E29-4031-87F9-5C48D3FF4383}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1340,169 +1364,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="B3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="24"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="24"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="24"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="24"/>
+    </row>
+    <row r="7" spans="1:3" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="24"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="24"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="24"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="24"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="24"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="24"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C14" s="24"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C15" s="24"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="93.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="C16" s="24"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="24"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="C18" s="24"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="24"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>147</v>
-      </c>
+      <c r="B20" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1516,15 +1557,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83736C7-2185-4E5D-AF56-E8CDCB0D75AE}">
   <dimension ref="A2:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1547,18 +1591,18 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" t="s">
         <v>177</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>178</v>
-      </c>
-      <c r="G3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1566,7 +1610,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1594,11 +1638,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="A1" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -1613,7 +1657,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>4</v>
@@ -1621,7 +1665,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -1629,7 +1673,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
@@ -1637,7 +1681,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>3</v>
@@ -1662,11 +1706,11 @@
   <sheetFormatPr defaultColWidth="28.140625" defaultRowHeight="51" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -1758,13 +1802,13 @@
     </row>
     <row r="10" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
@@ -1799,11 +1843,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -1857,7 +1901,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -1879,7 +1923,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -1901,7 +1945,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -1912,7 +1956,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -1923,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1934,7 +1978,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1945,7 +1989,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1965,7 +2009,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1976,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1987,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1998,7 +2042,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -2009,7 +2053,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2034,11 +2078,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -2059,7 +2103,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2070,7 +2114,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2081,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -2092,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -2103,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -2114,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2125,17 +2169,17 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2147,7 +2191,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
@@ -2158,7 +2202,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -2169,7 +2213,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2180,12 +2224,12 @@
         <v>45</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>4</v>
@@ -2205,7 +2249,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2214,11 +2258,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -2269,7 +2313,7 @@
         <v>121</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>26</v>
@@ -2280,7 +2324,7 @@
         <v>120</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>28</v>
@@ -2291,7 +2335,7 @@
         <v>125</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>29</v>
@@ -2302,7 +2346,7 @@
         <v>117</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>31</v>
@@ -2338,11 +2382,11 @@
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
